--- a/biology/Médecine/Assuré_social/Assuré_social.xlsx
+++ b/biology/Médecine/Assuré_social/Assuré_social.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Assur%C3%A9_social</t>
+          <t>Assuré_social</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En France, un assuré social est une personne bénéficiant des prestations d'une caisse de la branche maladie de la Sécurité Sociale.
 Un assuré social dispose d'un numéro d’immatriculation unique permettant son identification auprès de l'assurance maladie.
